--- a/stocks/ponto de entrada.xlsx
+++ b/stocks/ponto de entrada.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Ativo</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>ITSA4</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +114,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -144,6 +165,14 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -374,8 +403,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:M2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:M3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M3"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Ativo" dataDxfId="12"/>
     <tableColumn id="2" name="Resistência" dataDxfId="11" dataCellStyle="Moeda"/>
@@ -700,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -811,6 +840,56 @@
       <c r="M2" s="5">
         <f>(Tabela1[[#This Row],[Perna Ganho]]/4.5+Tabela1[[#This Row],[Prev. Suporte]])-0.02</f>
         <v>10.601111111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4.74</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f>IF(Tabela1[[#This Row],[Resistência]]&gt;Tabela1[[#This Row],[Suporte]],"alta","baixa")</f>
+        <v>alta</v>
+      </c>
+      <c r="F3" s="11">
+        <f>Tabela1[[#This Row],[Resistência2]]-Tabela1[[#This Row],[Suporte]]</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="G3" s="11">
+        <f>Tabela1[[#This Row],[Resistência]]-Tabela1[[#This Row],[Suporte]]</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="H3" s="12">
+        <f>Tabela1[[#This Row],[Resistência2]]-Tabela1[[#This Row],[Perna Perda]]</f>
+        <v>5.6400000000000006</v>
+      </c>
+      <c r="I3" s="13">
+        <f>Tabela1[[#This Row],[Prev. Suporte]]+Tabela1[[#This Row],[Perna Ganho]]</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="J3" s="11">
+        <f>(Tabela1[[#This Row],[Perna Ganho]]/16+Tabela1[[#This Row],[Prev. Suporte]])-0.02</f>
+        <v>5.7237500000000008</v>
+      </c>
+      <c r="K3" s="11">
+        <f>(Tabela1[[#This Row],[Perna Ganho]]/11+Tabela1[[#This Row],[Prev. Suporte]])-0.02</f>
+        <v>5.7709090909090923</v>
+      </c>
+      <c r="L3" s="11">
+        <f>(Tabela1[[#This Row],[Perna Ganho]]/6+Tabela1[[#This Row],[Prev. Suporte]])-0.02</f>
+        <v>5.8966666666666674</v>
+      </c>
+      <c r="M3" s="11">
+        <f>(Tabela1[[#This Row],[Perna Ganho]]/4.5+Tabela1[[#This Row],[Prev. Suporte]])-0.02</f>
+        <v>5.9888888888888898</v>
       </c>
     </row>
   </sheetData>
